--- a/division_task.xlsx
+++ b/division_task.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="23">
   <si>
     <t>Tasks Name</t>
   </si>
@@ -202,7 +202,43 @@
     <t>Dev1</t>
   </si>
   <si>
-    <t>22/12</t>
+    <t>20/02</t>
+  </si>
+  <si>
+    <t>User Template</t>
+  </si>
+  <si>
+    <t>Thuận</t>
+  </si>
+  <si>
+    <t>Carousel hiển thị banner phim</t>
+  </si>
+  <si>
+    <t>Sign In</t>
+  </si>
+  <si>
+    <t>Sign Up</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách phim</t>
+  </si>
+  <si>
+    <t>User Profile</t>
+  </si>
+  <si>
+    <t>Xem chi tiết phim</t>
+  </si>
+  <si>
+    <t>Booking Tickets</t>
+  </si>
+  <si>
+    <t>Thông tin phim và lịch chiếu phim</t>
+  </si>
+  <si>
+    <t>Dev2</t>
+  </si>
+  <si>
+    <t>Admin Template</t>
   </si>
 </sst>
 </file>
@@ -872,7 +908,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -915,7 +951,9 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" thickBot="1">
-      <c r="A2" s="10"/>
+      <c r="A2" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="B2" s="8" t="s">
         <v>10</v>
       </c>
@@ -1175,7 +1213,9 @@
       <c r="J11" s="6"/>
     </row>
     <row r="12" spans="1:10" ht="15" thickBot="1">
-      <c r="A12" s="10"/>
+      <c r="A12" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="B12" s="8" t="s">
         <v>10</v>
       </c>
@@ -1185,7 +1225,9 @@
       <c r="D12" s="11">
         <v>1</v>
       </c>
-      <c r="E12" s="10"/>
+      <c r="E12" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="F12" s="8" t="s">
         <v>10</v>
       </c>
@@ -1196,12 +1238,14 @@
         <v>1</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="J12" s="6"/>
     </row>
-    <row r="13" spans="1:10" ht="15" thickBot="1">
-      <c r="A13" s="10"/>
+    <row r="13" spans="1:10" ht="28.2" thickBot="1">
+      <c r="A13" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="B13" s="8" t="s">
         <v>10</v>
       </c>
@@ -1211,7 +1255,9 @@
       <c r="D13" s="11">
         <v>1</v>
       </c>
-      <c r="E13" s="10"/>
+      <c r="E13" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="F13" s="8" t="s">
         <v>10</v>
       </c>
@@ -1222,12 +1268,14 @@
         <v>1</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="J13" s="6"/>
     </row>
     <row r="14" spans="1:10" ht="15" thickBot="1">
-      <c r="A14" s="10"/>
+      <c r="A14" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="B14" s="8" t="s">
         <v>10</v>
       </c>
@@ -1237,7 +1285,9 @@
       <c r="D14" s="9">
         <v>1</v>
       </c>
-      <c r="E14" s="10"/>
+      <c r="E14" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="F14" s="8" t="s">
         <v>10</v>
       </c>
@@ -1247,13 +1297,15 @@
       <c r="H14" s="9">
         <v>1</v>
       </c>
-      <c r="I14" s="10" t="s">
-        <v>9</v>
+      <c r="I14" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="J14" s="6"/>
     </row>
     <row r="15" spans="1:10" ht="15" thickBot="1">
-      <c r="A15" s="10"/>
+      <c r="A15" s="10" t="s">
+        <v>15</v>
+      </c>
       <c r="B15" s="8" t="s">
         <v>10</v>
       </c>
@@ -1263,7 +1315,9 @@
       <c r="D15" s="11">
         <v>1</v>
       </c>
-      <c r="E15" s="10"/>
+      <c r="E15" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="F15" s="8" t="s">
         <v>10</v>
       </c>
@@ -1274,12 +1328,14 @@
         <v>1</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:10" ht="15" thickBot="1">
-      <c r="A16" s="10"/>
+    <row r="16" spans="1:10" ht="28.2" thickBot="1">
+      <c r="A16" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="B16" s="8" t="s">
         <v>10</v>
       </c>
@@ -1289,7 +1345,9 @@
       <c r="D16" s="11">
         <v>1</v>
       </c>
-      <c r="E16" s="10"/>
+      <c r="E16" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="F16" s="8" t="s">
         <v>10</v>
       </c>
@@ -1300,12 +1358,14 @@
         <v>1</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="J16" s="6"/>
     </row>
     <row r="17" spans="1:10" ht="15" thickBot="1">
-      <c r="A17" s="10"/>
+      <c r="A17" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="B17" s="8" t="s">
         <v>10</v>
       </c>
@@ -1315,7 +1375,9 @@
       <c r="D17" s="11">
         <v>1</v>
       </c>
-      <c r="E17" s="10"/>
+      <c r="E17" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="F17" s="8" t="s">
         <v>10</v>
       </c>
@@ -1326,12 +1388,14 @@
         <v>1</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="J17" s="6"/>
     </row>
     <row r="18" spans="1:10" ht="15" thickBot="1">
-      <c r="A18" s="10"/>
+      <c r="A18" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="B18" s="8" t="s">
         <v>10</v>
       </c>
@@ -1341,7 +1405,9 @@
       <c r="D18" s="11">
         <v>1</v>
       </c>
-      <c r="E18" s="10"/>
+      <c r="E18" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="F18" s="8" t="s">
         <v>10</v>
       </c>
@@ -1352,12 +1418,14 @@
         <v>1</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="J18" s="6"/>
     </row>
     <row r="19" spans="1:10" ht="15" thickBot="1">
-      <c r="A19" s="10"/>
+      <c r="A19" s="10" t="s">
+        <v>19</v>
+      </c>
       <c r="B19" s="8" t="s">
         <v>10</v>
       </c>
@@ -1367,7 +1435,9 @@
       <c r="D19" s="11">
         <v>1</v>
       </c>
-      <c r="E19" s="10"/>
+      <c r="E19" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="F19" s="8" t="s">
         <v>10</v>
       </c>
@@ -1378,12 +1448,14 @@
         <v>1</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="J19" s="6"/>
     </row>
-    <row r="20" spans="1:10" ht="15" thickBot="1">
-      <c r="A20" s="10"/>
+    <row r="20" spans="1:10" ht="28.2" thickBot="1">
+      <c r="A20" s="10" t="s">
+        <v>20</v>
+      </c>
       <c r="B20" s="8" t="s">
         <v>10</v>
       </c>
@@ -1393,7 +1465,9 @@
       <c r="D20" s="11">
         <v>1</v>
       </c>
-      <c r="E20" s="10"/>
+      <c r="E20" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="F20" s="8" t="s">
         <v>10</v>
       </c>
@@ -1404,7 +1478,7 @@
         <v>1</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="J20" s="6"/>
     </row>
@@ -1430,7 +1504,7 @@
         <v>1</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="J21" s="6"/>
     </row>
